--- a/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
+++ b/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -343,7 +343,7 @@
     <t>Indicates the context of the order details by reference.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameterFocus` is mapped to FHIR R4 structure `ServiceRequest`, but has no target element specified.</t>
+    <t>Element `ServiceRequest.orderDetail.parameterFocus` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.id</t>
@@ -461,7 +461,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:concept.id</t>
@@ -492,7 +492,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -540,7 +540,7 @@
     <t>The parameter details for the service being requested.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameter` is mapped to FHIR R4 structure `ServiceRequest`, but has no target element specified.</t>
+    <t>Element `ServiceRequest.orderDetail.parameter` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.id</t>
@@ -565,7 +565,7 @@
   </si>
   <si>
     <t>Element `ServiceRequest.orderDetail.parameter.code` is part of an existing definition because parent element `ServiceRequest.orderDetail.parameter` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter.code` is mapped to FHIR R4 structure `ServiceRequest`, but has no target element specified.</t>
+Element `ServiceRequest.orderDetail.parameter.code` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:code.id</t>
@@ -596,7 +596,7 @@
   </si>
   <si>
     <t>Element `ServiceRequest.orderDetail.parameter.value[x]` is part of an existing definition because parent element `ServiceRequest.orderDetail.parameter` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter.value[x]` is mapped to FHIR R4 structure `ServiceRequest`, but has no target element specified.</t>
+Element `ServiceRequest.orderDetail.parameter.value[x]` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.id</t>
@@ -958,7 +958,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="152.42578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="160.7578125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
+++ b/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ServiceRequest.orderDetail` 0..* `CodeableConcept`
 *  R4: `ServiceRequest.orderDetail` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `ServiceRequest.orderDetail` is mapped to FHIR R4 element `ServiceRequest.orderDetail`.</t>
+Element `ServiceRequest.orderDetail` has is mapped to FHIR R4 element `ServiceRequest.orderDetail`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -343,7 +343,8 @@
     <t>Indicates the context of the order details by reference.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameterFocus` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+    <t>Element `ServiceRequest.orderDetail.parameterFocus` is part of an existing definition because parent element `ServiceRequest.orderDetail` requires a cross-version extension.
+Element `ServiceRequest.orderDetail.parameterFocus` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.id</t>
@@ -460,8 +461,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:concept.id</t>
@@ -492,8 +493,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:reference.id</t>
@@ -518,6 +519,9 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameterFocus</t>
+  </si>
+  <si>
     <t>Extension.extension:parameterFocus.value[x]</t>
   </si>
   <si>
@@ -540,7 +544,8 @@
     <t>The parameter details for the service being requested.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameter` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+    <t>Element `ServiceRequest.orderDetail.parameter` is part of an existing definition because parent element `ServiceRequest.orderDetail` requires a cross-version extension.
+Element `ServiceRequest.orderDetail.parameter` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.id</t>
@@ -565,7 +570,7 @@
   </si>
   <si>
     <t>Element `ServiceRequest.orderDetail.parameter.code` is part of an existing definition because parent element `ServiceRequest.orderDetail.parameter` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter.code` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+Element `ServiceRequest.orderDetail.parameter.code` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:code.id</t>
@@ -577,6 +582,9 @@
     <t>Extension.extension:parameter.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameter.code</t>
+  </si>
+  <si>
     <t>Extension.extension:parameter.extension:code.value[x]</t>
   </si>
   <si>
@@ -596,7 +604,7 @@
   </si>
   <si>
     <t>Element `ServiceRequest.orderDetail.parameter.value[x]` is part of an existing definition because parent element `ServiceRequest.orderDetail.parameter` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter.value[x]` is will have a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+Element `ServiceRequest.orderDetail.parameter.value[x]` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.id</t>
@@ -606,6 +614,9 @@
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameter.value</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.value[x]</t>
@@ -616,6 +627,9 @@
   </si>
   <si>
     <t>Extension.extension:parameter.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameter</t>
   </si>
   <si>
     <t>Extension.extension:parameter.value[x]</t>
@@ -958,7 +972,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="160.7578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="154.7734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3333,7 +3347,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3395,10 +3409,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3421,7 +3435,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>132</v>
@@ -3498,13 +3512,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3529,14 +3543,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3605,7 +3619,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3708,7 +3722,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3719,7 +3733,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -3811,13 +3825,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3842,14 +3856,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3918,7 +3932,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>114</v>
@@ -4021,7 +4035,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>116</v>
@@ -4126,7 +4140,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>122</v>
@@ -4169,7 +4183,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4231,7 +4245,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>131</v>
@@ -4260,10 +4274,10 @@
         <v>147</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4334,13 +4348,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4365,16 +4379,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4443,7 +4457,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>114</v>
@@ -4546,7 +4560,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>116</v>
@@ -4651,7 +4665,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>122</v>
@@ -4694,7 +4708,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4756,7 +4770,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>131</v>
@@ -4782,16 +4796,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4861,7 +4875,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>159</v>
@@ -4904,7 +4918,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4966,10 +4980,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4992,7 +5006,7 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>132</v>
@@ -5200,7 +5214,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>132</v>

--- a/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
+++ b/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -461,8 +461,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:concept.id</t>
@@ -493,8 +492,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:reference.id</t>
@@ -509,7 +507,7 @@
     <t>Extension.extension:parameterFocus.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|0.0.1-snapshot-3|SupplyRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|SupplyRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
+++ b/StructureDefinition-ext-R5-ServiceRequest.orderDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ServiceRequest.orderDetail` 0..* `CodeableConcept`
 *  R4: `ServiceRequest.orderDetail` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `ServiceRequest.orderDetail` has is mapped to FHIR R4 element `ServiceRequest.orderDetail`, but has no comparisons.</t>
+Element `ServiceRequest.orderDetail` is mapped to FHIR R4 element `ServiceRequest.orderDetail` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -343,8 +343,7 @@
     <t>Indicates the context of the order details by reference.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameterFocus` is part of an existing definition because parent element `ServiceRequest.orderDetail` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameterFocus` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+    <t>Element `ServiceRequest.orderDetail.parameterFocus` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.id</t>
@@ -461,7 +460,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:concept.id</t>
@@ -492,7 +491,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.extension:reference.id</t>
@@ -507,7 +506,7 @@
     <t>Extension.extension:parameterFocus.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|SupplyRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|0.0.1-snapshot-3|SupplyRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -515,9 +514,6 @@
   </si>
   <si>
     <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameterFocus</t>
   </si>
   <si>
     <t>Extension.extension:parameterFocus.value[x]</t>
@@ -542,8 +538,7 @@
     <t>The parameter details for the service being requested.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameter` is part of an existing definition because parent element `ServiceRequest.orderDetail` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+    <t>Element `ServiceRequest.orderDetail.parameter` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.id</t>
@@ -567,8 +562,7 @@
     <t>A value representing the additional detail or instructions for the order (e.g., catheter insertion, body elevation, descriptive device configuration and/or setting instructions).</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameter.code` is part of an existing definition because parent element `ServiceRequest.orderDetail.parameter` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter.code` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+    <t>Element `ServiceRequest.orderDetail.parameter.code` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:code.id</t>
@@ -580,12 +574,18 @@
     <t>Extension.extension:parameter.extension:code.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameter.code</t>
-  </si>
-  <si>
     <t>Extension.extension:parameter.extension:code.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for order detail parameters.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-servicerequest-orderdetail-parameter-code-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:parameter.extension:value</t>
   </si>
   <si>
@@ -601,8 +601,7 @@
     <t>CodeableConcept values are indented to express concepts that would normally be coded - when a code is not available for a concept, CodeableConcept.text can be used. When the data is a text or not a single identifiable concept, string should be used.</t>
   </si>
   <si>
-    <t>Element `ServiceRequest.orderDetail.parameter.value[x]` is part of an existing definition because parent element `ServiceRequest.orderDetail.parameter` requires a cross-version extension.
-Element `ServiceRequest.orderDetail.parameter.value[x]` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
+    <t>Element `ServiceRequest.orderDetail.parameter.value[x]` has a context of ServiceRequest.orderDetail based on following the parent source element upwards and mapping to `ServiceRequest`.</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.id</t>
@@ -612,9 +611,6 @@
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameter.value</t>
   </si>
   <si>
     <t>Extension.extension:parameter.extension:value.value[x]</t>
@@ -625,9 +621,6 @@
   </si>
   <si>
     <t>Extension.extension:parameter.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ServiceRequest.orderDetail.parameter</t>
   </si>
   <si>
     <t>Extension.extension:parameter.value[x]</t>
@@ -980,8 +973,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="28.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="88.66796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3345,7 +3338,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3407,10 +3400,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3433,7 +3426,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>132</v>
@@ -3510,13 +3503,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3541,14 +3534,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3617,7 +3610,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3720,7 +3713,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3731,7 +3724,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -3823,13 +3816,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3854,14 +3847,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3930,7 +3923,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>114</v>
@@ -4033,7 +4026,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>116</v>
@@ -4138,7 +4131,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>122</v>
@@ -4181,7 +4174,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4243,7 +4236,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>131</v>
@@ -4272,10 +4265,10 @@
         <v>147</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4302,13 +4295,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4346,13 +4339,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4377,16 +4370,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4455,7 +4448,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>114</v>
@@ -4558,7 +4551,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>116</v>
@@ -4663,7 +4656,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>122</v>
@@ -4706,7 +4699,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4797,13 +4790,13 @@
         <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4916,7 +4909,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4978,10 +4971,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5004,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>132</v>
@@ -5212,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>132</v>
